--- a/output/KAPITALO_20270180000139.xlsx
+++ b/output/KAPITALO_20270180000139.xlsx
@@ -1175,10 +1175,10 @@
         <v>44165</v>
       </c>
       <c r="B72">
-        <v>1.266652956625397</v>
+        <v>1.25853470693019</v>
       </c>
       <c r="C72">
-        <v>0.03688344385142073</v>
+        <v>0.03316973960860414</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_20270180000139.xlsx
+++ b/output/KAPITALO_20270180000139.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO ZETA A FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,799 +383,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
       <c r="B2">
-        <v>-0.002205116752393765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
       <c r="B3">
-        <v>0.03509047743352744</v>
-      </c>
-      <c r="C3">
         <v>0.03737801707755017</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
       <c r="B4">
-        <v>0.04117249137180745</v>
-      </c>
-      <c r="C4">
         <v>0.005875828317308152</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
       <c r="B5">
-        <v>0.02644761241988314</v>
-      </c>
-      <c r="C5">
         <v>-0.01414259315718513</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
       <c r="B6">
-        <v>0.07512953337344208</v>
-      </c>
-      <c r="C6">
         <v>0.04742757483627424</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
       <c r="B7">
-        <v>0.04030752133256899</v>
-      </c>
-      <c r="C7">
         <v>-0.03238866663034712</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
       <c r="B8">
-        <v>0.1098946821342646</v>
-      </c>
-      <c r="C8">
         <v>0.06689095231432995</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
       <c r="B9">
-        <v>0.07028678538619593</v>
-      </c>
-      <c r="C9">
         <v>-0.03568617580174804</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
       <c r="B10">
-        <v>0.03346801779319786</v>
-      </c>
-      <c r="C10">
         <v>-0.03440084292894696</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
       <c r="B11">
-        <v>0.01878963120185406</v>
-      </c>
-      <c r="C11">
         <v>-0.01420303902842301</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
       <c r="B12">
-        <v>0.1082384580799776</v>
-      </c>
-      <c r="C12">
         <v>0.0877991139079437</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
       <c r="B13">
-        <v>0.1249654548207983</v>
-      </c>
-      <c r="C13">
         <v>0.01509331914884116</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
       <c r="B14">
-        <v>0.2034846289420542</v>
-      </c>
-      <c r="C14">
         <v>0.06979696468436325</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
       <c r="B15">
-        <v>0.1897288417038243</v>
-      </c>
-      <c r="C15">
         <v>-0.01142996504269622</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
       <c r="B16">
-        <v>0.180152888566238</v>
-      </c>
-      <c r="C16">
         <v>-0.008048853488222152</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
       <c r="B17">
-        <v>0.2424149393094972</v>
-      </c>
-      <c r="C17">
         <v>0.05275761415870539</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
       <c r="B18">
-        <v>0.2396125518766945</v>
-      </c>
-      <c r="C18">
         <v>-0.002255597018464894</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
       <c r="B19">
-        <v>0.2919770920531064</v>
-      </c>
-      <c r="C19">
         <v>0.04224266695035905</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
       <c r="B20">
-        <v>0.3130122040973382</v>
-      </c>
-      <c r="C20">
         <v>0.01628133515185204</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
       <c r="B21">
-        <v>0.3641150865647684</v>
-      </c>
-      <c r="C21">
         <v>0.03892034080716122</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
       <c r="B22">
-        <v>0.3904525668909573</v>
-      </c>
-      <c r="C22">
         <v>0.01930737412523897</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
       <c r="B23">
-        <v>0.4764314962467291</v>
-      </c>
-      <c r="C23">
         <v>0.06183521207632436</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
       <c r="B24">
-        <v>0.4722982134323441</v>
-      </c>
-      <c r="C24">
         <v>-0.002799508697079567</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
       <c r="B25">
-        <v>0.5183410889347593</v>
-      </c>
-      <c r="C25">
         <v>0.03127279180423392</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
       <c r="B26">
-        <v>0.5961510335858691</v>
-      </c>
-      <c r="C26">
         <v>0.05124668311894265</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
       <c r="B27">
-        <v>0.6552774721826604</v>
-      </c>
-      <c r="C27">
         <v>0.03704313523762193</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
       <c r="B28">
-        <v>0.6757569150757226</v>
-      </c>
-      <c r="C28">
         <v>0.01237221144927303</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
       <c r="B29">
-        <v>0.6547462571881963</v>
-      </c>
-      <c r="C29">
         <v>-0.01253801055421977</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
       <c r="B30">
-        <v>0.6163924756622214</v>
-      </c>
-      <c r="C30">
         <v>-0.0231780439806808</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
       <c r="B31">
-        <v>0.6629736961662365</v>
-      </c>
-      <c r="C31">
         <v>0.02881801369740433</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
       <c r="B32">
-        <v>0.739876951397511</v>
-      </c>
-      <c r="C32">
         <v>0.04624442070765444</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
       <c r="B33">
-        <v>0.7677391925885639</v>
-      </c>
-      <c r="C33">
         <v>0.01601391475912894</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
       <c r="B34">
-        <v>0.8396261047828206</v>
-      </c>
-      <c r="C34">
         <v>0.04066601707743445</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
       <c r="B35">
-        <v>0.8197412809146207</v>
-      </c>
-      <c r="C35">
         <v>-0.01080916595850734</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
       <c r="B36">
-        <v>0.8128476246764245</v>
-      </c>
-      <c r="C36">
         <v>-0.003788261721870412</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
       <c r="B37">
-        <v>0.8206510933954332</v>
-      </c>
-      <c r="C37">
         <v>0.004304536472226506</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
       <c r="B38">
-        <v>0.9155696964090103</v>
-      </c>
-      <c r="C38">
         <v>0.05213442781975219</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
       <c r="B39">
-        <v>0.9740052314217647</v>
-      </c>
-      <c r="C39">
         <v>0.03050556454421871</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
       <c r="B40">
-        <v>1.046868070708458</v>
-      </c>
-      <c r="C40">
         <v>0.03691116828206886</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
       <c r="B41">
-        <v>1.105282628179556</v>
-      </c>
-      <c r="C41">
         <v>0.02853850636835609</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
       <c r="B42">
-        <v>1.044419178422831</v>
-      </c>
-      <c r="C42">
         <v>-0.02890987126481626</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
       <c r="B43">
-        <v>1.096530691734436</v>
-      </c>
-      <c r="C43">
         <v>0.02548964217397276</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
       <c r="B44">
-        <v>1.130649249021686</v>
-      </c>
-      <c r="C44">
         <v>0.01627381722660326</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
       <c r="B45">
-        <v>1.124270956770355</v>
-      </c>
-      <c r="C45">
         <v>-0.00299359092270135</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
       <c r="B46">
-        <v>1.174958354276502</v>
-      </c>
-      <c r="C46">
         <v>0.02386107918323677</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
       <c r="B47">
-        <v>1.247633927755939</v>
-      </c>
-      <c r="C47">
         <v>0.03341469657869034</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
       <c r="B48">
-        <v>1.188439488925803</v>
-      </c>
-      <c r="C48">
         <v>-0.02633633444447814</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
       <c r="B49">
-        <v>1.144873200778055</v>
-      </c>
-      <c r="C49">
         <v>-0.01990746756682438</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43496</v>
       </c>
       <c r="B50">
-        <v>1.239792216271383</v>
-      </c>
-      <c r="C50">
         <v>0.0442539052932811</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43524</v>
       </c>
       <c r="B51">
-        <v>1.256887262802046</v>
-      </c>
-      <c r="C51">
         <v>0.007632425189476155</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43555</v>
       </c>
       <c r="B52">
-        <v>1.252252345683959</v>
-      </c>
-      <c r="C52">
         <v>-0.002053676847080133</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43585</v>
       </c>
       <c r="B53">
-        <v>1.249071950021596</v>
-      </c>
-      <c r="C53">
         <v>-0.001412095615510145</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43616</v>
       </c>
       <c r="B54">
-        <v>1.237181985477177</v>
-      </c>
-      <c r="C54">
         <v>-0.005286609236447415</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43646</v>
       </c>
       <c r="B55">
-        <v>1.326836109420272</v>
-      </c>
-      <c r="C55">
         <v>0.04007457798475511</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43677</v>
       </c>
       <c r="B56">
-        <v>1.308219248308686</v>
-      </c>
-      <c r="C56">
         <v>-0.008000933557896439</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43708</v>
       </c>
       <c r="B57">
-        <v>1.312201268905568</v>
-      </c>
-      <c r="C57">
         <v>0.001725148336666704</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43738</v>
       </c>
       <c r="B58">
-        <v>1.339933225420774</v>
-      </c>
-      <c r="C58">
         <v>0.01199374677634912</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43769</v>
       </c>
       <c r="B59">
-        <v>1.409452385989123</v>
-      </c>
-      <c r="C59">
         <v>0.02970989078367747</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43799</v>
       </c>
       <c r="B60">
-        <v>1.406051608288014</v>
-      </c>
-      <c r="C60">
         <v>-0.001411431792918694</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43830</v>
       </c>
       <c r="B61">
-        <v>1.482703191945095</v>
-      </c>
-      <c r="C61">
         <v>0.03185783022818089</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43861</v>
       </c>
       <c r="B62">
-        <v>1.430774642866192</v>
-      </c>
-      <c r="C62">
         <v>-0.02091613256364289</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43890</v>
       </c>
       <c r="B63">
-        <v>1.358712132149084</v>
-      </c>
-      <c r="C63">
         <v>-0.02964590359233676</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43921</v>
       </c>
       <c r="B64">
-        <v>1.103475672238876</v>
-      </c>
-      <c r="C64">
         <v>-0.1082100933095451</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43951</v>
       </c>
       <c r="B65">
-        <v>1.146717338822064</v>
-      </c>
-      <c r="C65">
         <v>0.02055724587352281</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43982</v>
       </c>
       <c r="B66">
-        <v>1.19940626486032</v>
-      </c>
-      <c r="C66">
         <v>0.02454395140217525</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44012</v>
       </c>
       <c r="B67">
-        <v>1.193759829539796</v>
-      </c>
-      <c r="C67">
         <v>-0.002567254358931237</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44043</v>
       </c>
       <c r="B68">
-        <v>1.254566298165114</v>
-      </c>
-      <c r="C68">
         <v>0.02771792418045727</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44074</v>
       </c>
       <c r="B69">
-        <v>1.273497527773146</v>
-      </c>
-      <c r="C69">
         <v>0.008396838728335299</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44104</v>
       </c>
       <c r="B70">
-        <v>1.203958509251037</v>
-      </c>
-      <c r="C70">
         <v>-0.03058680190878471</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44135</v>
       </c>
       <c r="B71">
-        <v>1.186024832459564</v>
-      </c>
-      <c r="C71">
         <v>-0.008137030128379186</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44165</v>
       </c>
       <c r="B72">
-        <v>1.25853470693019</v>
-      </c>
-      <c r="C72">
-        <v>0.03316973960860414</v>
+        <v>0.02349606447786945</v>
       </c>
     </row>
   </sheetData>
